--- a/docs/distinct_graphs.xlsx
+++ b/docs/distinct_graphs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricsi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricsi\GitHub\Seq2seqChatbots\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8664,8 +8664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" activeCellId="1" sqref="B3:B11 J3:J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9013,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9028,8 +9028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/distinct_graphs.xlsx
+++ b/docs/distinct_graphs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricsi\GitHub\Seq2seqChatbots\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F683A599-3BDF-49A6-A3E7-A030D8FC5D2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21435" windowHeight="9480"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -125,7 +126,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -190,7 +190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -226,7 +226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:f>Sheet1!$H$7:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -296,7 +296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -332,7 +332,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$11</c:f>
+              <c:f>Sheet1!$I$7:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -402,7 +402,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -438,7 +438,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$11</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -624,7 +624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -706,7 +705,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -771,7 +769,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -807,7 +805,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:f>Sheet1!$C$7:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -877,7 +875,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -913,7 +911,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>Sheet1!$D$7:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -983,7 +981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1019,7 +1017,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>Sheet1!$E$7:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1205,7 +1203,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1287,7 +1284,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1352,7 +1348,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1388,7 +1384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>Sheet1!$E$7:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1624,7 +1620,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1689,7 +1684,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1725,7 +1720,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$11</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2058,35 +2053,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2094,35 +2101,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:f>Sheet1!$C$3:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.26470588235294101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.190016103059581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.136546184738955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.103643358225842</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>8.9923469387755098E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>6.5749960486802594E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>5.4131054131054103E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>4.7051317835639303E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8" formatCode="0.00">
                   <c:v>4.1670688933938202E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9" formatCode="0.00">
                   <c:v>3.7725738170515999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10" formatCode="0.00">
                   <c:v>3.46950451996796E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11" formatCode="0.00">
                   <c:v>3.2580503571286001E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12" formatCode="0.00">
                   <c:v>3.0647212605101299E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2164,72 +2183,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>Sheet1!$D$3:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0.29964221824686899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24531445231153601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189626556016597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.154620853080568</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.13498022119964401</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>9.8486037025415696E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>8.20164730501972E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>7.3354379497637207E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>6.6236492264635002E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>6.0146039148309502E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>5.5223256300324097E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>5.2127043843148597E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>4.8778364345809497E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0349373624513199E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2937180313263099E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9337463871101602E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5351998046716E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0179064829510599E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6526511080430201E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,7 +2414,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2386,7 +2465,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2468,32 +2546,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>distinct unigram ratio | model / adat</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2558,35 +2610,47 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2594,35 +2658,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>Sheet1!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>0.8834064969271298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77458177155527264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72007944249646039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67030647005832233</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.66619737757543596</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.66760692655178011</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.6600022180656786</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.64142479505473637</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.62911980253198008</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.6272356202457654</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.62826873176393949</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.62502112472215843</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.62829520866732735</c:v>
                 </c:pt>
               </c:numCache>
@@ -2631,7 +2707,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F1CB-4E7F-8072-4C3301A88F60}"/>
+              <c16:uniqueId val="{00000000-C88A-4A88-8DCD-70930A488D02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2643,11 +2719,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293339456"/>
-        <c:axId val="293327808"/>
+        <c:axId val="627189408"/>
+        <c:axId val="627196296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293339456"/>
+        <c:axId val="627189408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,15 +2780,14 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293327808"/>
+        <c:crossAx val="627196296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293327808"/>
+        <c:axId val="627196296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2767,7 +2842,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293339456"/>
+        <c:crossAx val="627189408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2781,6 +2856,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2861,7 +2943,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2926,71 +3007,113 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$11</c:f>
+              <c:f>Sheet1!$H$3:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54798464491362697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41004784688995199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32750739446087601</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.30311077389984797</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.24150553782616799</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.20947724708536999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.190046966174865</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.174329869233424</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.163239895281271</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.15230957896171099</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.14519728407957799</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.137570360413341</c:v>
                 </c:pt>
               </c:numCache>
@@ -3032,72 +3155,132 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>3000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$11</c:f>
+              <c:f>Sheet1!$I$3:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0.79666011787819202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74420717855520202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66900452488687701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60723514211886298</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.57600772811100298</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.50340483486550902</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.46368861786245702</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.44130726185663499</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.42188316614684301</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.40288799099158701</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.38474557147692601</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
                   <c:v>0.37447356106691598</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.36279581071522898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30288925665425398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.26729986431478903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25162868993283899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.237285555762866</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20799575283336699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19054381383717101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,7 +3437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,7 +3548,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3431,7 +3612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$7:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3467,7 +3648,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$11</c:f>
+              <c:f>Sheet1!$J$7:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8140,20 +8321,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1243693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8171,19 +8358,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8200,20 +8393,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>240846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74839</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8230,20 +8429,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>474889</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>31296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8278,7 +8483,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8297,20 +8508,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>633933</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>103255</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A307B182-35EB-4394-BBEA-F8955B5DF600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8347,7 +8564,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8379,7 +8602,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8661,26 +8890,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.53515625" customWidth="1"/>
+    <col min="5" max="5" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3046875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -8706,301 +8935,467 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.9923469387755098E-2</v>
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0.26470588235294101</v>
       </c>
       <c r="D3">
-        <v>0.13498022119964401</v>
+        <v>0.29964221824686899</v>
       </c>
       <c r="E3">
-        <f>C3/D3</f>
-        <v>0.66619737757543596</v>
-      </c>
-      <c r="F3" s="2">
-        <f>D3-C3</f>
-        <v>4.5056751811888909E-2</v>
+        <f t="shared" ref="E3:E6" si="0">C3/D3</f>
+        <v>0.8834064969271298</v>
       </c>
       <c r="H3">
-        <v>0.30311077389984797</v>
+        <v>0.65625</v>
       </c>
       <c r="I3">
-        <v>0.57600772811100298</v>
+        <v>0.79666011787819202</v>
       </c>
       <c r="J3">
-        <f>H3/I3</f>
-        <v>0.5262269221523973</v>
-      </c>
-      <c r="K3">
-        <f>I3-H3</f>
-        <v>0.27289695421115501</v>
+        <f t="shared" ref="J3:J6" si="1">H3/I3</f>
+        <v>0.82375154130702888</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.5749960486802594E-2</v>
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>0.190016103059581</v>
       </c>
       <c r="D4">
-        <v>9.8486037025415696E-2</v>
+        <v>0.24531445231153601</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">C4/D4</f>
-        <v>0.66760692655178011</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F11" si="1">D4-C4</f>
-        <v>3.2736076538613101E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.77458177155527264</v>
       </c>
       <c r="H4">
-        <v>0.24150553782616799</v>
+        <v>0.54798464491362697</v>
       </c>
       <c r="I4">
-        <v>0.50340483486550902</v>
+        <v>0.74420717855520202</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J11" si="2">H4/I4</f>
-        <v>0.47974417625664889</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K11" si="3">I4-H4</f>
-        <v>0.26189929703934101</v>
+        <f t="shared" si="1"/>
+        <v>0.73633345754266988</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.4131054131054103E-2</v>
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>0.136546184738955</v>
       </c>
       <c r="D5">
-        <v>8.20164730501972E-2</v>
+        <v>0.189626556016597</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.6600022180656786</v>
-      </c>
-      <c r="F5" s="2">
+        <v>0.72007944249646039</v>
+      </c>
+      <c r="H5">
+        <v>0.41004784688995199</v>
+      </c>
+      <c r="I5">
+        <v>0.66900452488687701</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>2.7885418919143097E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.20947724708536999</v>
-      </c>
-      <c r="I5">
-        <v>0.46368861786245702</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0.45176275417549022</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="3"/>
-        <v>0.254211370777087</v>
+        <v>0.61292238189164361</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.7051317835639303E-2</v>
+        <v>700</v>
+      </c>
+      <c r="C6">
+        <v>0.103643358225842</v>
       </c>
       <c r="D6">
-        <v>7.3354379497637207E-2</v>
+        <v>0.154620853080568</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
+        <v>0.67030647005832233</v>
+      </c>
+      <c r="H6">
+        <v>0.32750739446087601</v>
+      </c>
+      <c r="I6">
+        <v>0.60723514211886298</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.53934196449514482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.9923469387755098E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.13498022119964401</v>
+      </c>
+      <c r="E7">
+        <f>C7/D7</f>
+        <v>0.66619737757543596</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7-C7</f>
+        <v>4.5056751811888909E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.30311077389984797</v>
+      </c>
+      <c r="I7">
+        <v>0.57600772811100298</v>
+      </c>
+      <c r="J7">
+        <f>H7/I7</f>
+        <v>0.5262269221523973</v>
+      </c>
+      <c r="K7">
+        <f>I7-H7</f>
+        <v>0.27289695421115501</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.5749960486802594E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.8486037025415696E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E15" si="2">C8/D8</f>
+        <v>0.66760692655178011</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:F15" si="3">D8-C8</f>
+        <v>3.2736076538613101E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.24150553782616799</v>
+      </c>
+      <c r="I8">
+        <v>0.50340483486550902</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J15" si="4">H8/I8</f>
+        <v>0.47974417625664889</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K15" si="5">I8-H8</f>
+        <v>0.26189929703934101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.4131054131054103E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.20164730501972E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.6600022180656786</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7885418919143097E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.20947724708536999</v>
+      </c>
+      <c r="I9">
+        <v>0.46368861786245702</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.45176275417549022</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>0.254211370777087</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.7051317835639303E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.3354379497637207E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
         <v>0.64142479505473637</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
         <v>2.6303061661997904E-2</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>0.190046966174865</v>
       </c>
-      <c r="I6">
+      <c r="I10">
         <v>0.44130726185663499</v>
       </c>
-      <c r="J6">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.43064545408864013</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0.25126029568177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.1670688933938202E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.6236492264635002E-2</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.43064545408864013</v>
-      </c>
-      <c r="K6">
+        <v>0.62911980253198008</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>0.25126029568177</v>
+        <v>2.45658033306968E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.174329869233424</v>
+      </c>
+      <c r="I11">
+        <v>0.42188316614684301</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.41321835811942725</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.24755329691341901</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.1670688933938202E-2</v>
-      </c>
-      <c r="D7">
-        <v>6.6236492264635002E-2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.62911980253198008</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>2.45658033306968E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.174329869233424</v>
-      </c>
-      <c r="I7">
-        <v>0.42188316614684301</v>
-      </c>
-      <c r="J7">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.7725738170515999E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.0146039148309502E-2</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>0.41321835811942725</v>
-      </c>
-      <c r="K7">
+        <v>0.6272356202457654</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="3"/>
-        <v>0.24755329691341901</v>
+        <v>2.2420300977793503E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.163239895281271</v>
+      </c>
+      <c r="I12">
+        <v>0.40288799099158701</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.40517438824499419</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0.23964809571031601</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.7725738170515999E-2</v>
-      </c>
-      <c r="D8">
-        <v>6.0146039148309502E-2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.6272356202457654</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>2.2420300977793503E-2</v>
-      </c>
-      <c r="H8">
-        <v>0.163239895281271</v>
-      </c>
-      <c r="I8">
-        <v>0.40288799099158701</v>
-      </c>
-      <c r="J8">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>7000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.46950451996796E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.5223256300324097E-2</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>0.40517438824499419</v>
-      </c>
-      <c r="K8">
+        <v>0.62826873176393949</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>0.23964809571031601</v>
+        <v>2.0528211100644497E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.15230957896171099</v>
+      </c>
+      <c r="I13">
+        <v>0.38474557147692601</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.39587090860341539</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0.23243599251521502</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.46950451996796E-2</v>
-      </c>
-      <c r="D9">
-        <v>5.5223256300324097E-2</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.62826873176393949</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0528211100644497E-2</v>
-      </c>
-      <c r="H9">
-        <v>0.15230957896171099</v>
-      </c>
-      <c r="I9">
-        <v>0.38474557147692601</v>
-      </c>
-      <c r="J9">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>8000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.2580503571286001E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.2127043843148597E-2</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
-        <v>0.39587090860341539</v>
-      </c>
-      <c r="K9">
+        <v>0.62502112472215843</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>0.23243599251521502</v>
+        <v>1.9546540271862596E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.14519728407957799</v>
+      </c>
+      <c r="I14">
+        <v>0.37447356106691598</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.38773707726092893</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.22927627698733799</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>8000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.2580503571286001E-2</v>
-      </c>
-      <c r="D10">
-        <v>5.2127043843148597E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.62502112472215843</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9546540271862596E-2</v>
-      </c>
-      <c r="H10">
-        <v>0.14519728407957799</v>
-      </c>
-      <c r="I10">
-        <v>0.37447356106691598</v>
-      </c>
-      <c r="J10">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>9000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.0647212605101299E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.8778364345809497E-2</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
-        <v>0.38773707726092893</v>
-      </c>
-      <c r="K10">
+        <v>0.62829520866732735</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>0.22927627698733799</v>
+        <v>1.8131151740708198E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.137570360413341</v>
+      </c>
+      <c r="I15">
+        <v>0.36279581071522898</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.37919500818416219</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.22522545030188798</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>9000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.0647212605101299E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.8778364345809497E-2</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.62829520866732735</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.8131151740708198E-2</v>
-      </c>
-      <c r="H11">
-        <v>0.137570360413341</v>
-      </c>
-      <c r="I11">
-        <v>0.36279581071522898</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0.37919500818416219</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>0.22522545030188798</v>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>15000</v>
+      </c>
+      <c r="D16">
+        <v>4.0349373624513199E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.30288925665425398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>20000</v>
+      </c>
+      <c r="D17">
+        <v>3.2937180313263099E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.26729986431478903</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>25000</v>
+      </c>
+      <c r="D18">
+        <v>2.9337463871101602E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.25162868993283899</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>35000</v>
+      </c>
+      <c r="D19">
+        <v>2.5351998046716E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.237285555762866</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>50000</v>
+      </c>
+      <c r="D20">
+        <v>2.0179064829510599E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.20799575283336699</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>70000</v>
+      </c>
+      <c r="D21">
+        <v>1.6526511080430201E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.19054381383717101</v>
       </c>
     </row>
   </sheetData>
@@ -9010,14 +9405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9025,14 +9420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/distinct_graphs.xlsx
+++ b/docs/distinct_graphs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricsi\GitHub\Seq2seqChatbots\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F683A599-3BDF-49A6-A3E7-A030D8FC5D2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -126,6 +125,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -624,6 +624,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -705,6 +706,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1203,6 +1205,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1284,6 +1287,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1620,6 +1624,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1955,70 +1960,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>distinct unigram ratio | model (kék) és adat (narancs) alapján</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18603599101010579"/>
-          <c:y val="1.078167115902965E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2027,8 +1969,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Model</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2157,11 +2102,15 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2335,6 +2284,8 @@
         <c:axId val="222497168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="75000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2352,6 +2303,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Number of examples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2374,7 +2381,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2414,6 +2421,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Distinct-1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2436,7 +2499,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2465,6 +2528,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2478,7 +2542,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2518,7 +2582,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -2546,6 +2610,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2856,6 +2921,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2863,7 +2929,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2912,67 +2977,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>distinct</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t> bigram ratio | model (kék) és adat(narancs) alapján</a:t>
-            </a:r>
-            <a:endParaRPr lang="hu-HU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2981,8 +2986,11 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Model</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3129,11 +3137,15 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3307,6 +3319,8 @@
         <c:axId val="222489264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="75000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3324,6 +3338,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Number of examples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3346,7 +3416,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3369,6 +3439,8 @@
         <c:axId val="222495088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3386,6 +3458,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Distinct-2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3408,7 +3536,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3437,6 +3565,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3450,7 +3579,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3490,7 +3619,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -3548,6 +3677,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8471,15 +8601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8508,16 +8638,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>633933</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57631</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>179534</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>103255</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>282549</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>93651</xdr:rowOff>
+      <xdr:rowOff>26416</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8558,9 +8688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8589,16 +8719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>434227</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>131669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>224677</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>74519</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8890,26 +9020,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.53515625" customWidth="1"/>
-    <col min="5" max="5" width="19.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -8935,7 +9065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>100</v>
       </c>
@@ -8960,7 +9090,7 @@
         <v>0.82375154130702888</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>200</v>
       </c>
@@ -8985,7 +9115,7 @@
         <v>0.73633345754266988</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>400</v>
       </c>
@@ -9010,7 +9140,7 @@
         <v>0.61292238189164361</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>700</v>
       </c>
@@ -9035,7 +9165,7 @@
         <v>0.53934196449514482</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1000</v>
       </c>
@@ -9068,7 +9198,7 @@
         <v>0.27289695421115501</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2000</v>
       </c>
@@ -9101,7 +9231,7 @@
         <v>0.26189929703934101</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3000</v>
       </c>
@@ -9134,7 +9264,7 @@
         <v>0.254211370777087</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4000</v>
       </c>
@@ -9167,7 +9297,7 @@
         <v>0.25126029568177</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5000</v>
       </c>
@@ -9200,7 +9330,7 @@
         <v>0.24755329691341901</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6000</v>
       </c>
@@ -9233,7 +9363,7 @@
         <v>0.23964809571031601</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7000</v>
       </c>
@@ -9266,7 +9396,7 @@
         <v>0.23243599251521502</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8000</v>
       </c>
@@ -9299,7 +9429,7 @@
         <v>0.22927627698733799</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9000</v>
       </c>
@@ -9332,7 +9462,7 @@
         <v>0.22522545030188798</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15000</v>
       </c>
@@ -9343,7 +9473,7 @@
         <v>0.30288925665425398</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>20000</v>
       </c>
@@ -9354,7 +9484,7 @@
         <v>0.26729986431478903</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>25000</v>
       </c>
@@ -9365,7 +9495,7 @@
         <v>0.25162868993283899</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>35000</v>
       </c>
@@ -9376,7 +9506,7 @@
         <v>0.237285555762866</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>50000</v>
       </c>
@@ -9387,7 +9517,7 @@
         <v>0.20799575283336699</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>70000</v>
       </c>
@@ -9405,14 +9535,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9420,14 +9550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
